--- a/TablasLatex/TablasdelInforme.xlsx
+++ b/TablasLatex/TablasdelInforme.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maibe\Documents\UCHILE\Ramos\EL7012 Control Inteligente de Sistemas\Tareas\EL7012-Tarea1\TablasLatex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +23,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Conjunto Entrenamiento</t>
+  </si>
+  <si>
+    <t>Conjunto de Prueba</t>
+  </si>
+  <si>
+    <t>Conjunto de Validación</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +79,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,12 +411,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.41E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123.1323</v>
+      </c>
+      <c r="C3" s="1">
+        <v>101.9383</v>
+      </c>
+      <c r="D3" s="1">
+        <v>169.4761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3402</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.35239999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TablasLatex/TablasdelInforme.xlsx
+++ b/TablasLatex/TablasdelInforme.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Conjunto Entrenamiento</t>
   </si>
@@ -42,6 +42,90 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>Predicción a 1 pasos</t>
+  </si>
+  <si>
+    <t>Predicción a 8 pasos</t>
+  </si>
+  <si>
+    <t>Predicción a 16 pasos</t>
+  </si>
+  <si>
+    <t>PICP</t>
+  </si>
+  <si>
+    <t>PINAW</t>
+  </si>
+  <si>
+    <t>Entrenamiento</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Índices</t>
+  </si>
+  <si>
+    <t>Parámetro α</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>PICP (%)</t>
+  </si>
+  <si>
+    <t>Modelo Lineal</t>
+  </si>
+  <si>
+    <t>0,0954</t>
+  </si>
+  <si>
+    <t>0,0789</t>
+  </si>
+  <si>
+    <t>0,0964</t>
+  </si>
+  <si>
+    <t>0,6020</t>
+  </si>
+  <si>
+    <t>0,5805</t>
+  </si>
+  <si>
+    <t>0,5944</t>
+  </si>
+  <si>
+    <t>Modelo Difuso Takagi Sugeno</t>
+  </si>
+  <si>
+    <t>Tabla 6</t>
+  </si>
+  <si>
+    <t>Tabla7</t>
+  </si>
+  <si>
+    <t>Tabla 8</t>
   </si>
 </sst>
 </file>
@@ -71,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -116,11 +200,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -131,6 +444,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,10 +799,18 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,8 +820,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -449,8 +837,11 @@
       <c r="D2" s="1">
         <v>2.41E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -463,8 +854,11 @@
       <c r="D3" s="1">
         <v>169.4761</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -478,7 +872,601 @@
         <v>0.35239999999999999</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.2082</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.2109</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1938</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>70.92</v>
+      </c>
+      <c r="C9" s="6">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="D9" s="6">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.1454</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.1938</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.86529999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="J15" s="6">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="K15" s="6">
+        <v>186.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.66720000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H17" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="8:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H19" s="20"/>
+      <c r="I19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6">
+        <v>100</v>
+      </c>
+      <c r="J20" s="6">
+        <v>86.66</v>
+      </c>
+      <c r="K20" s="6">
+        <v>72.83</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6">
+        <v>27.56</v>
+      </c>
+      <c r="J21" s="6">
+        <v>28.63</v>
+      </c>
+      <c r="K21" s="6">
+        <v>26.49</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="8:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H25" s="20"/>
+      <c r="I25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6">
+        <v>96.92</v>
+      </c>
+      <c r="J26" s="6">
+        <v>75.5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>64.92</v>
+      </c>
+    </row>
+    <row r="27" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6">
+        <v>30.91</v>
+      </c>
+      <c r="J27" s="6">
+        <v>32.08</v>
+      </c>
+      <c r="K27" s="6">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="30" spans="8:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="8:23" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="22">
+        <v>1</v>
+      </c>
+      <c r="V31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:23" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="24">
+        <v>322034</v>
+      </c>
+      <c r="S32" s="24">
+        <v>525424</v>
+      </c>
+      <c r="T32" s="24">
+        <v>587288</v>
+      </c>
+      <c r="U32" s="24">
+        <v>653390</v>
+      </c>
+      <c r="V32" s="24">
+        <v>885593</v>
+      </c>
+      <c r="W32" s="24">
+        <v>961017</v>
+      </c>
+    </row>
+    <row r="33" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="24">
+        <v>11687</v>
+      </c>
+      <c r="S33" s="24">
+        <v>186992</v>
+      </c>
+      <c r="T33" s="24">
+        <v>210366</v>
+      </c>
+      <c r="U33" s="24">
+        <v>237339</v>
+      </c>
+      <c r="V33" s="24">
+        <v>350609</v>
+      </c>
+      <c r="W33" s="24">
+        <v>467479</v>
+      </c>
+    </row>
+    <row r="48" spans="17:27" x14ac:dyDescent="0.3">
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="28"/>
+    </row>
+    <row r="50" spans="24:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X50" s="20"/>
+      <c r="Y50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG50" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>0.1938</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>0.7077</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+    </row>
+    <row r="52" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="25">
+        <v>2382150</v>
+      </c>
+      <c r="Z52" s="25">
+        <v>2266030</v>
+      </c>
+      <c r="AA52" s="25">
+        <v>2353357</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>159.78</v>
+      </c>
+      <c r="AD52" s="6">
+        <v>169.81</v>
+      </c>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+    </row>
+    <row r="53" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB53" s="6">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="AC53" s="6">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="AD53" s="6">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+    </row>
+    <row r="56" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y56" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="28"/>
+    </row>
+    <row r="57" spans="24:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X57" s="20"/>
+      <c r="Y57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>525.41999999999996</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>527.97</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>527.97</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>84.67</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>72</v>
+      </c>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+    </row>
+    <row r="59" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y59" s="25">
+        <v>186.99199999999999</v>
+      </c>
+      <c r="Z59" s="25">
+        <v>184.24</v>
+      </c>
+      <c r="AA59" s="25">
+        <v>187.35</v>
+      </c>
+      <c r="AB59" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="AC59" s="6">
+        <v>29.55</v>
+      </c>
+      <c r="AD59" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+    </row>
+    <row r="60" spans="24:33" x14ac:dyDescent="0.3">
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AE49:AG49"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AG56"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I24:K24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TablasLatex/TablasdelInforme.xlsx
+++ b/TablasLatex/TablasdelInforme.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>Conjunto Entrenamiento</t>
   </si>
@@ -126,6 +127,15 @@
   </si>
   <si>
     <t>Tabla 8</t>
+  </si>
+  <si>
+    <t>alfa 10</t>
+  </si>
+  <si>
+    <t>alfa 1</t>
+  </si>
+  <si>
+    <t>alfa 5</t>
   </si>
 </sst>
 </file>
@@ -433,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -488,6 +498,11 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,17 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K27"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,11 +887,11 @@
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -945,21 +956,21 @@
       <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1006,7 +1017,7 @@
       </c>
     </row>
     <row r="17" spans="8:23" x14ac:dyDescent="0.3">
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1014,15 +1025,21 @@
       <c r="H18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="8:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="8:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="H19" s="20"/>
       <c r="I19" s="16" t="s">
         <v>7</v>
@@ -1034,9 +1051,15 @@
         <v>9</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="N19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H20" s="6" t="s">
@@ -1051,10 +1074,18 @@
       <c r="K20" s="6">
         <v>72.83</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="6">
+        <v>100</v>
+      </c>
+      <c r="O20" s="6">
+        <v>86.66</v>
+      </c>
+      <c r="P20" s="6">
+        <v>72.83</v>
+      </c>
     </row>
     <row r="21" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H21" s="6" t="s">
@@ -1069,10 +1100,18 @@
       <c r="K21" s="6">
         <v>26.49</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="6">
+        <v>27.56</v>
+      </c>
+      <c r="O21" s="6">
+        <v>28.63</v>
+      </c>
+      <c r="P21" s="6">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="22" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H22" s="6"/>
@@ -1081,7 +1120,7 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="8:23" x14ac:dyDescent="0.3">
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="28" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="5"/>
@@ -1092,9 +1131,9 @@
       <c r="H24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="8:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H25" s="20"/>
@@ -1215,21 +1254,21 @@
       <c r="X49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" s="26" t="s">
+      <c r="Y49" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="26" t="s">
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="26" t="s">
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="28"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="31"/>
     </row>
     <row r="50" spans="24:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="X50" s="20"/>
@@ -1343,21 +1382,21 @@
       <c r="X56" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y56" s="26" t="s">
+      <c r="Y56" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="26" t="s">
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="26" t="s">
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="28"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="31"/>
     </row>
     <row r="57" spans="24:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="X57" s="20"/>
@@ -1455,6 +1494,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="AE49:AG49"/>
     <mergeCell ref="Y56:AA56"/>
     <mergeCell ref="AB56:AD56"/>
@@ -1463,11 +1505,142 @@
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Y49:AA49"/>
     <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9.08</v>
+      </c>
+      <c r="E4" s="6">
+        <v>97.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>63</v>
+      </c>
+      <c r="G4" s="6">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6">
+        <v>86.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13.78</v>
+      </c>
+      <c r="F5" s="6">
+        <v>14.448</v>
+      </c>
+      <c r="G5" s="6">
+        <v>14.87</v>
+      </c>
+      <c r="H5" s="6">
+        <v>27.550735061184799</v>
+      </c>
+      <c r="I5" s="6">
+        <v>28.884626370334701</v>
+      </c>
+      <c r="J5" s="6">
+        <v>29.739384999501102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>